--- a/TestPWA/wwwroot/checklist/BPS_1020.xlsx
+++ b/TestPWA/wwwroot/checklist/BPS_1020.xlsx
@@ -12,7 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Wartungscheckliste MUVE</d:t>
+    </d:r>
+  </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -1022,73 +1032,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center" wrapText="1" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,16 +1113,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" descr="" name="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -1118,183 +1177,103 @@
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>22</v>
+      <c r="A11" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1302,16 +1281,16 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>24</v>
+      <c r="A12" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1319,16 +1298,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>26</v>
+      <c r="A13" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1336,16 +1315,16 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>28</v>
+      <c r="A14" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1353,16 +1332,16 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>30</v>
+      <c r="A15" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1370,16 +1349,16 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>32</v>
+      <c r="A16" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1387,16 +1366,16 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>34</v>
+      <c r="A17" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1404,273 +1383,273 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="18" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="I28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="s">
+      <c r="J28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="24"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="24"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="21"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33">
-      <c r="A33" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="18" t="s">
+      <c r="A33" s="17"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="H38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="I38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="22" t="s">
+      <c r="J38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -1678,254 +1657,334 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="17"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="24"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="24"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="20" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="21"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="17"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="17"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="22" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="19"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="19"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="19"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="22" t="s">
-        <v>75</v>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="15" t="s">
-        <v>62</v>
+      <c r="G51" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="H51" s="16"/>
-      <c r="I51" s="15" t="s">
-        <v>76</v>
+      <c r="I51" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="19"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="22" t="s">
-        <v>77</v>
+      <c r="A52" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="22" t="s">
-        <v>78</v>
+      <c r="E52" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J52" s="16"/>
-      <c r="K52" s="19"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="22" t="s">
-        <v>80</v>
+      <c r="A53" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="22" t="s">
-        <v>81</v>
+      <c r="E53" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="15" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J53" s="16"/>
-      <c r="K53" s="19"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54">
-      <c r="A54" s="22" t="s">
-        <v>83</v>
+      <c r="A54" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="22" t="s">
-        <v>84</v>
+      <c r="E54" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="19"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="17"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="25" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="24"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="17"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -1933,53 +1992,38 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
@@ -1996,10 +2040,32 @@
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestPWA/wwwroot/checklist/BPS_1020.xlsx
+++ b/TestPWA/wwwroot/checklist/BPS_1020.xlsx
@@ -1032,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1079,9 +1079,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="11" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,8 +1120,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1158,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K62"/>
+  <dimension ref="A3:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,11 +1171,10 @@
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1196,8 +1192,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -1213,8 +1208,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
@@ -1231,7 +1225,6 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
@@ -1254,10 +1247,9 @@
       <c r="J9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="9"/>
@@ -1268,11 +1260,10 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="16"/>
@@ -1283,13 +1274,12 @@
       <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
@@ -1300,13 +1290,12 @@
       <c r="G12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="16"/>
@@ -1317,13 +1306,12 @@
       <c r="G13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="16"/>
@@ -1334,13 +1322,12 @@
       <c r="G14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="16"/>
@@ -1351,13 +1338,12 @@
       <c r="G15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="16"/>
@@ -1368,13 +1354,12 @@
       <c r="G16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="16"/>
@@ -1385,13 +1370,12 @@
       <c r="G17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="16"/>
@@ -1402,13 +1386,12 @@
       <c r="G18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="16"/>
@@ -1419,13 +1402,12 @@
       <c r="G19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="16"/>
@@ -1436,13 +1418,12 @@
       <c r="G20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="16"/>
@@ -1453,13 +1434,12 @@
       <c r="G21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="16"/>
@@ -1470,10 +1450,9 @@
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23">
       <c r="A23" s="17"/>
@@ -1490,7 +1469,7 @@
       <c r="A26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="9"/>
@@ -1501,18 +1480,17 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="22"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="19" t="s">
         <v>8</v>
       </c>
@@ -1525,10 +1503,9 @@
       <c r="J28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="16"/>
@@ -1539,13 +1516,12 @@
       <c r="G29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="16"/>
@@ -1556,13 +1532,12 @@
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="16"/>
@@ -1573,13 +1548,12 @@
       <c r="G31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="16"/>
@@ -1590,10 +1564,9 @@
       <c r="G32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="17"/>
@@ -1610,7 +1583,7 @@
       <c r="A36" s="17"/>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="9"/>
@@ -1621,18 +1594,17 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="22"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="19" t="s">
         <v>8</v>
       </c>
@@ -1645,10 +1617,9 @@
       <c r="J38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="20"/>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="16"/>
@@ -1659,13 +1630,12 @@
       <c r="G40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="16"/>
@@ -1676,13 +1646,12 @@
       <c r="G41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="16"/>
@@ -1693,13 +1662,12 @@
       <c r="G42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="16"/>
@@ -1710,13 +1678,12 @@
       <c r="G43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="16"/>
@@ -1727,13 +1694,12 @@
       <c r="G44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="16"/>
@@ -1744,10 +1710,9 @@
       <c r="G45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46">
       <c r="A46" s="17"/>
@@ -1764,7 +1729,7 @@
       <c r="A49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="9"/>
@@ -1775,17 +1740,16 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="22"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="27" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="16"/>
@@ -1797,16 +1761,15 @@
         <v>60</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F52" s="16"/>
@@ -1818,16 +1781,15 @@
         <v>64</v>
       </c>
       <c r="J52" s="16"/>
-      <c r="K52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="16"/>
@@ -1839,16 +1801,15 @@
         <v>68</v>
       </c>
       <c r="J53" s="16"/>
-      <c r="K53" s="20"/>
     </row>
     <row r="54">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F54" s="16"/>
@@ -1860,16 +1821,15 @@
         <v>71</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="20"/>
     </row>
     <row r="55">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="22" t="s">
         <v>73</v>
       </c>
       <c r="F55" s="16"/>
@@ -1881,16 +1841,15 @@
         <v>74</v>
       </c>
       <c r="J55" s="16"/>
-      <c r="K55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="16"/>
@@ -1902,16 +1861,15 @@
         <v>77</v>
       </c>
       <c r="J56" s="16"/>
-      <c r="K56" s="20"/>
     </row>
     <row r="57">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F57" s="16"/>
@@ -1923,16 +1881,15 @@
         <v>80</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="22" t="s">
         <v>82</v>
       </c>
       <c r="F58" s="16"/>
@@ -1944,16 +1901,15 @@
         <v>83</v>
       </c>
       <c r="J58" s="16"/>
-      <c r="K58" s="20"/>
     </row>
     <row r="59">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="16"/>
@@ -1965,7 +1921,6 @@
         <v>86</v>
       </c>
       <c r="J59" s="16"/>
-      <c r="K59" s="20"/>
     </row>
     <row r="60">
       <c r="A60" s="17"/>
@@ -1980,11 +1935,11 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -1997,21 +1952,21 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
@@ -2019,11 +1974,11 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
@@ -2060,9 +2015,9 @@
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
     <mergeCell ref="A3:E4"/>
   </mergeCells>
   <headerFooter/>
